--- a/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9AE479-6835-469A-A763-508C283E113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FF040D-D121-431B-9B32-03A23F934A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{402FFD5E-C624-405B-9C31-FF1F51FCB4D8}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0CAA8C06-0B12-4C01-BF70-164C23D76581}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>94,24%</t>
   </si>
   <si>
@@ -98,12 +203,6 @@
     <t>94,09%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>5,76%</t>
   </si>
   <si>
@@ -125,64 +224,64 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -203,9 +302,6 @@
     <t>97,46%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,21%</t>
   </si>
   <si>
@@ -227,9 +323,6 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,54%</t>
   </si>
   <si>
@@ -242,99 +335,6 @@
     <t>3,07%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
     <t>96,47%</t>
   </si>
   <si>
@@ -392,6 +392,90 @@
     <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
     <t>98,53%</t>
   </si>
   <si>
@@ -446,58 +530,52 @@
     <t>2,36%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>96,54%</t>
@@ -524,9 +602,6 @@
     <t>95,12%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
     <t>3,46%</t>
   </si>
   <si>
@@ -548,84 +623,9 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
     <t>97,5%</t>
   </si>
   <si>
@@ -671,6 +671,84 @@
     <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
     <t>96,13%</t>
   </si>
   <si>
@@ -713,58 +791,52 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>98,63%</t>
@@ -815,78 +887,6 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
     <t>97,91%</t>
   </si>
   <si>
@@ -932,6 +932,66 @@
     <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
     <t>97,97%</t>
   </si>
   <si>
@@ -980,28 +1040,46 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>96,56%</t>
@@ -1050,84 +1128,6 @@
   </si>
   <si>
     <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
   </si>
   <si>
     <t>97,62%</t>
@@ -1561,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A810AA6-0A00-4D48-B8E6-D8055C108272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7E0BF2-5654-4FE1-BD48-82A418F7CC11}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1679,10 +1679,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>198655</v>
+        <v>23793</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1694,85 +1694,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>190731</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>60</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46517</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>607</v>
-      </c>
-      <c r="N4" s="7">
-        <v>389385</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>832</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7">
-        <v>12140</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4432</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>832</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>25</v>
-      </c>
-      <c r="N5" s="7">
-        <v>16573</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,54 +1781,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7">
-        <v>210795</v>
+        <v>24625</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>632</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>405958</v>
+        <v>47349</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1840,13 +1840,13 @@
         <v>124472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>169</v>
@@ -1855,13 +1855,13 @@
         <v>112651</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>357</v>
@@ -1870,19 +1870,19 @@
         <v>237123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1891,13 +1891,13 @@
         <v>3161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1906,13 +1906,13 @@
         <v>3351</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1921,13 +1921,13 @@
         <v>6512</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1942,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1957,13 +1957,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1972,117 +1972,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D10" s="7">
-        <v>201211</v>
+        <v>198655</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>305</v>
+      </c>
+      <c r="I10" s="7">
+        <v>190731</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>272</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207841</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>607</v>
+      </c>
+      <c r="N10" s="7">
+        <v>389385</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>568</v>
-      </c>
-      <c r="N10" s="7">
-        <v>409051</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>5969</v>
+        <v>12140</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4432</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>25</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16573</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1474</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7444</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,153 +2091,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D12" s="7">
-        <v>207180</v>
+        <v>210795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="N12" s="7">
-        <v>416495</v>
+        <v>405958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="D13" s="7">
-        <v>23793</v>
+        <v>146345</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>225</v>
+      </c>
+      <c r="I13" s="7">
+        <v>135430</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>452</v>
+      </c>
+      <c r="N13" s="7">
+        <v>281775</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>60</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46517</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>832</v>
+        <v>3312</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>832</v>
+        <v>5699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,144 +2246,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>24625</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>61</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>47349</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="D16" s="7">
-        <v>146345</v>
+        <v>201211</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="I16" s="7">
-        <v>135430</v>
+        <v>207841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>452</v>
+        <v>568</v>
       </c>
       <c r="N16" s="7">
-        <v>281775</v>
+        <v>409051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5969</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1474</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3312</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2387</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>5699</v>
+        <v>7444</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>95</v>
@@ -2401,49 +2401,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207180</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>416495</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2502,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>38</v>
@@ -2562,13 +2562,13 @@
         <v>719890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2577,13 +2577,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>2100</v>
@@ -2592,13 +2592,13 @@
         <v>1400911</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4429B325-C6E3-4A98-9D16-B04026452DB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B7BC68-33EA-4757-9DDD-8FEFC7618DEB}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,100 +2737,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>219124</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20581</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="7">
-        <v>315</v>
-      </c>
-      <c r="I4" s="7">
-        <v>203692</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46036</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="7">
-        <v>632</v>
-      </c>
-      <c r="N4" s="7">
-        <v>422816</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3272</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1792</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1792</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2666</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5938</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,54 +2839,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>222396</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>641</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>428754</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2898,13 +2898,13 @@
         <v>126417</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -2913,13 +2913,13 @@
         <v>113938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>338</v>
@@ -2928,19 +2928,19 @@
         <v>240354</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2949,13 +2949,13 @@
         <v>1973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2964,13 +2964,13 @@
         <v>2310</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -2979,13 +2979,13 @@
         <v>4284</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>128390</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -3015,13 +3015,13 @@
         <v>116248</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>344</v>
@@ -3030,117 +3030,117 @@
         <v>244638</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="D10" s="7">
-        <v>199853</v>
+        <v>219124</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="7">
+        <v>315</v>
+      </c>
+      <c r="I10" s="7">
+        <v>203692</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="7">
+        <v>632</v>
+      </c>
+      <c r="N10" s="7">
+        <v>422816</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="7">
-        <v>267</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204434</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="7">
-        <v>538</v>
-      </c>
-      <c r="N10" s="7">
-        <v>404288</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7160</v>
+        <v>3272</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2666</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="7">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5938</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5079</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12239</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,153 +3149,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207013</v>
+        <v>222396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>209513</v>
+        <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>555</v>
+        <v>641</v>
       </c>
       <c r="N12" s="7">
-        <v>416527</v>
+        <v>428754</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>160272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="I13" s="7">
-        <v>20581</v>
+        <v>149905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>479</v>
       </c>
       <c r="N13" s="7">
-        <v>46036</v>
+        <v>310176</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>6320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4773</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="7">
+        <v>18</v>
+      </c>
+      <c r="N14" s="7">
+        <v>11094</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1792</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1792</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,81 +3304,81 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>166592</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154678</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>321270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D16" s="7">
-        <v>160272</v>
+        <v>199853</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>267</v>
+      </c>
+      <c r="I16" s="7">
+        <v>204434</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="7">
-        <v>233</v>
-      </c>
-      <c r="I16" s="7">
-        <v>149905</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>183</v>
@@ -3387,10 +3387,10 @@
         <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="N16" s="7">
-        <v>310176</v>
+        <v>404288</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>185</v>
@@ -3399,55 +3399,55 @@
         <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>6320</v>
+        <v>7160</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>4773</v>
+        <v>5079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>11094</v>
+        <v>12239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>194</v>
@@ -3459,49 +3459,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>166592</v>
+        <v>207013</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>154678</v>
+        <v>209513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="N18" s="7">
-        <v>321270</v>
+        <v>416527</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
         <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>196</v>
@@ -3548,7 +3548,7 @@
         <v>1423670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>200</v>
@@ -3560,7 +3560,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
@@ -3575,7 +3575,7 @@
         <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -3599,7 +3599,7 @@
         <v>35346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>207</v>
@@ -3620,13 +3620,13 @@
         <v>749846</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>1022</v>
@@ -3635,13 +3635,13 @@
         <v>709170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>2091</v>
@@ -3650,13 +3650,13 @@
         <v>1459016</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7FA56B-7C49-44BE-AAB0-CE16956151C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E6A02F-C892-4F62-BA3B-44FF7B7C71C2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,100 +3795,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>218804</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21364</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="7">
-        <v>325</v>
-      </c>
-      <c r="I4" s="7">
-        <v>201820</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>46938</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="7">
-        <v>649</v>
-      </c>
-      <c r="N4" s="7">
-        <v>420624</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4149</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1163</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1163</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4277</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8426</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,54 +3897,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>222953</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>206097</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>662</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>429050</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3956,13 +3956,13 @@
         <v>118591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>158</v>
@@ -3971,13 +3971,13 @@
         <v>107817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>318</v>
@@ -3986,19 +3986,19 @@
         <v>226409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -4007,13 +4007,13 @@
         <v>3143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4022,13 +4022,13 @@
         <v>2681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -4037,13 +4037,13 @@
         <v>5824</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4058,13 @@
         <v>121734</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -4073,13 +4073,13 @@
         <v>110498</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
@@ -4088,117 +4088,117 @@
         <v>232233</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="D10" s="7">
-        <v>202274</v>
+        <v>218804</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="7">
+        <v>325</v>
+      </c>
+      <c r="I10" s="7">
+        <v>201820</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="7">
+        <v>649</v>
+      </c>
+      <c r="N10" s="7">
+        <v>420624</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="7">
-        <v>276</v>
-      </c>
-      <c r="I10" s="7">
-        <v>203862</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" s="7">
-        <v>561</v>
-      </c>
-      <c r="N10" s="7">
-        <v>406137</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>2816</v>
+        <v>4149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>2157</v>
+        <v>4277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>4973</v>
+        <v>8426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,150 +4207,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="D12" s="7">
-        <v>205090</v>
+        <v>222953</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>206019</v>
+        <v>206097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="N12" s="7">
-        <v>411110</v>
+        <v>429050</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>161282</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="I13" s="7">
-        <v>21364</v>
+        <v>151511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>492</v>
       </c>
       <c r="N13" s="7">
-        <v>46938</v>
+        <v>312793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3120</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1163</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>8511</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1163</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>265</v>
@@ -4362,63 +4362,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>154631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>321304</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="D16" s="7">
-        <v>161282</v>
+        <v>202274</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>266</v>
@@ -4430,28 +4430,28 @@
         <v>268</v>
       </c>
       <c r="H16" s="7">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="I16" s="7">
-        <v>151511</v>
+        <v>203862</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>561</v>
+      </c>
+      <c r="N16" s="7">
+        <v>406137</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="M16" s="7">
-        <v>492</v>
-      </c>
-      <c r="N16" s="7">
-        <v>312793</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>272</v>
@@ -4463,13 +4463,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>5391</v>
+        <v>2816</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>274</v>
@@ -4481,28 +4481,28 @@
         <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>3120</v>
+        <v>2157</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4973</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="M17" s="7">
-        <v>13</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8511</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>280</v>
@@ -4517,49 +4517,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205090</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="I18" s="7">
-        <v>154631</v>
+        <v>206019</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="N18" s="7">
-        <v>321304</v>
+        <v>411110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>1034</v>
@@ -4597,7 +4597,7 @@
         <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>2073</v>
@@ -4618,7 +4618,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>22</v>
@@ -4630,7 +4630,7 @@
         <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>290</v>
@@ -4645,7 +4645,7 @@
         <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>292</v>
@@ -4678,13 +4678,13 @@
         <v>742024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>1054</v>
@@ -4693,13 +4693,13 @@
         <v>699773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>2115</v>
@@ -4708,13 +4708,13 @@
         <v>1441797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45387DC-BBF0-4FEE-9A33-DCFA931CE278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AA298B-304D-47BD-BEFF-6FA12FE2EE6D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>245114</v>
+        <v>12120</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>297</v>
@@ -4865,13 +4865,13 @@
         <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>184516</v>
+        <v>15797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>299</v>
@@ -4880,73 +4880,73 @@
         <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>44</v>
+      </c>
+      <c r="N4" s="7">
+        <v>27917</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="7">
-        <v>606</v>
-      </c>
-      <c r="N4" s="7">
-        <v>429630</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>578</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5072</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>990</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7836</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1568</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M5" s="7">
-        <v>17</v>
-      </c>
-      <c r="N5" s="7">
-        <v>12908</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,54 +4955,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5014,13 +5014,13 @@
         <v>111486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -5029,13 +5029,13 @@
         <v>101834</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -5044,19 +5044,19 @@
         <v>213319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -5065,13 +5065,13 @@
         <v>3110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5080,13 +5080,13 @@
         <v>2061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5095,13 +5095,13 @@
         <v>5171</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5116,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5131,13 +5131,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5146,117 +5146,117 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="D10" s="7">
-        <v>168990</v>
+        <v>245114</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="7">
+        <v>271</v>
+      </c>
+      <c r="I10" s="7">
+        <v>184516</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>606</v>
+      </c>
+      <c r="N10" s="7">
+        <v>429630</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="7">
-        <v>237</v>
-      </c>
-      <c r="I10" s="7">
-        <v>169597</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M10" s="7">
-        <v>467</v>
-      </c>
-      <c r="N10" s="7">
-        <v>338587</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>6026</v>
+        <v>5072</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7836</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>17</v>
+      </c>
+      <c r="N11" s="7">
+        <v>12908</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2346</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8371</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,153 +5265,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7">
-        <v>12120</v>
+        <v>170742</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" s="7">
+        <v>221</v>
+      </c>
+      <c r="I13" s="7">
+        <v>164293</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15797</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>443</v>
+      </c>
+      <c r="N13" s="7">
+        <v>335036</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="7">
-        <v>44</v>
-      </c>
-      <c r="N13" s="7">
-        <v>27917</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>578</v>
+        <v>2466</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4442</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>990</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6907</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1568</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,153 +5420,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>168735</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341943</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D16" s="7">
-        <v>170742</v>
+        <v>168990</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>237</v>
+      </c>
+      <c r="I16" s="7">
+        <v>169597</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H16" s="7">
-        <v>221</v>
-      </c>
-      <c r="I16" s="7">
-        <v>164293</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>467</v>
+      </c>
+      <c r="N16" s="7">
+        <v>338587</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="M16" s="7">
-        <v>443</v>
-      </c>
-      <c r="N16" s="7">
-        <v>335036</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6026</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>2466</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>2346</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4442</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8371</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6907</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,49 +5575,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>168735</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341943</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
         <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>921</v>
@@ -5670,13 +5670,13 @@
         <v>369</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -5688,7 +5688,7 @@
         <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>371</v>
@@ -5718,7 +5718,7 @@
         <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>376</v>
@@ -5736,13 +5736,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>943</v>
@@ -5751,13 +5751,13 @@
         <v>653712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1920</v>
@@ -5766,13 +5766,13 @@
         <v>1379416</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FF040D-D121-431B-9B32-03A23F934A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C0FDD1-7622-4425-AD30-A9A286A6AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0CAA8C06-0B12-4C01-BF70-164C23D76581}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C608DC64-72ED-4A70-8B80-53CAE4F65035}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -71,13 +71,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>83,64%</t>
+    <t>83,06%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,40 +116,43 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>91,23%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>94,54%</t>
+    <t>94,44%</t>
   </si>
   <si>
     <t>99,06%</t>
@@ -134,1042 +161,958 @@
     <t>97,11%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>98,16%</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1123,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1276,39 +1219,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1360,7 +1303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1471,13 +1414,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1486,6 +1422,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1550,19 +1493,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7E0BF2-5654-4FE1-BD48-82A418F7CC11}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9527FD11-EBA9-4B50-ACDF-29735992A81D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1679,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>23793</v>
+        <v>832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1694,13 +1657,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1709,19 +1672,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46517</v>
+        <v>832</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,10 +1693,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>832</v>
+        <v>23793</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1745,13 +1708,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1760,19 +1723,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>832</v>
+        <v>46517</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,13 +1750,13 @@
         <v>24625</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1802,13 +1765,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -1817,13 +1780,13 @@
         <v>47349</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>124472</v>
+        <v>3161</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1849,10 +1812,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>112651</v>
+        <v>3351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1864,10 +1827,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>237123</v>
+        <v>6512</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1885,10 +1848,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7">
-        <v>3161</v>
+        <v>124472</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1900,10 +1863,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="I8" s="7">
-        <v>3351</v>
+        <v>112651</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1915,10 +1878,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="N8" s="7">
-        <v>6512</v>
+        <v>237123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1942,13 +1905,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1957,13 +1920,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1972,13 +1935,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>198655</v>
+        <v>12140</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -2004,10 +1967,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>305</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>190731</v>
+        <v>4432</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -2019,10 +1982,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>607</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>389385</v>
+        <v>16573</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2031,7 +1994,7 @@
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,49 +2003,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>12140</v>
+        <v>198655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="I11" s="7">
-        <v>4432</v>
+        <v>190731</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>607</v>
       </c>
       <c r="N11" s="7">
-        <v>16573</v>
+        <v>389385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2060,13 @@
         <v>210795</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -2112,13 +2075,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>632</v>
@@ -2127,66 +2090,66 @@
         <v>405958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>146345</v>
+        <v>3312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>135430</v>
+        <v>2387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>452</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>281775</v>
+        <v>5699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,49 +2158,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>3312</v>
+        <v>146345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="I14" s="7">
-        <v>2387</v>
+        <v>135430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="N14" s="7">
-        <v>5699</v>
+        <v>281775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2215,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -2267,13 +2230,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -2282,66 +2245,66 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>296</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>201211</v>
+        <v>5969</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>272</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>207841</v>
+        <v>1474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>568</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>409051</v>
+        <v>7444</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,49 +2313,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="D17" s="7">
-        <v>5969</v>
+        <v>201211</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="I17" s="7">
-        <v>1474</v>
+        <v>207841</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>568</v>
       </c>
       <c r="N17" s="7">
-        <v>7444</v>
+        <v>409051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2370,13 @@
         <v>207180</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -2422,13 +2385,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>579</v>
@@ -2437,13 +2400,13 @@
         <v>416495</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,49 +2417,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1044</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>694476</v>
+        <v>25414</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>669376</v>
+        <v>11645</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>2044</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>1363852</v>
+        <v>37059</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,49 +2468,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>38</v>
+        <v>1044</v>
       </c>
       <c r="D20" s="7">
-        <v>25414</v>
+        <v>694476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="7">
-        <v>11645</v>
+        <v>669376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>56</v>
+        <v>2044</v>
       </c>
       <c r="N20" s="7">
-        <v>37059</v>
+        <v>1363852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2525,13 @@
         <v>719890</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2577,13 +2540,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2100</v>
@@ -2592,13 +2555,18 @@
         <v>1400911</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2619,8 +2587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B7BC68-33EA-4757-9DDD-8FEFC7618DEB}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F8FE4-A434-4E74-9330-34911823B519}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2636,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2737,49 +2705,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>20581</v>
+        <v>1792</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>46036</v>
+        <v>1792</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,49 +2756,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>1792</v>
+        <v>20581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>1792</v>
+        <v>46036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2813,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2860,13 +2828,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2875,13 +2843,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,49 +2860,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>126417</v>
+        <v>1973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>113938</v>
+        <v>2310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
-        <v>338</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>240354</v>
+        <v>4284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,49 +2911,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="D8" s="7">
-        <v>1973</v>
+        <v>126417</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>2310</v>
+        <v>113938</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="N8" s="7">
-        <v>4284</v>
+        <v>240354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2968,13 @@
         <v>128390</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -3015,13 +2983,13 @@
         <v>116248</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>344</v>
@@ -3030,13 +2998,13 @@
         <v>244638</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,49 +3015,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>317</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>219124</v>
+        <v>3272</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
-        <v>315</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>203692</v>
+        <v>2666</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>422816</v>
+        <v>5938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,25 +3066,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>3272</v>
+        <v>219124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>2666</v>
+        <v>203692</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>157</v>
@@ -3128,19 +3096,19 @@
         <v>159</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>5938</v>
+        <v>422816</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3123,13 @@
         <v>222396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>319</v>
@@ -3170,13 +3138,13 @@
         <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>641</v>
@@ -3185,66 +3153,66 @@
         <v>428754</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>160272</v>
+        <v>6320</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4773</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="7">
-        <v>233</v>
-      </c>
-      <c r="I13" s="7">
-        <v>149905</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>18</v>
+      </c>
+      <c r="N13" s="7">
+        <v>11094</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M13" s="7">
-        <v>479</v>
-      </c>
-      <c r="N13" s="7">
-        <v>310176</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,49 +3221,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>6320</v>
+        <v>160272</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7">
+        <v>233</v>
+      </c>
+      <c r="I14" s="7">
+        <v>149905</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4773</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>479</v>
+      </c>
+      <c r="N14" s="7">
+        <v>310176</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="7">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7">
-        <v>11094</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3278,13 @@
         <v>166592</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -3325,13 +3293,13 @@
         <v>154678</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>497</v>
@@ -3340,66 +3308,66 @@
         <v>321270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>199853</v>
+        <v>7160</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5079</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="7">
-        <v>267</v>
-      </c>
-      <c r="I16" s="7">
-        <v>204434</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>17</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12239</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="M16" s="7">
-        <v>538</v>
-      </c>
-      <c r="N16" s="7">
-        <v>404288</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,49 +3376,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="D17" s="7">
-        <v>7160</v>
+        <v>199853</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="7">
+        <v>267</v>
+      </c>
+      <c r="I17" s="7">
+        <v>204434</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="7">
+        <v>538</v>
+      </c>
+      <c r="N17" s="7">
+        <v>404288</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5079</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M17" s="7">
-        <v>17</v>
-      </c>
-      <c r="N17" s="7">
-        <v>12239</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3433,13 @@
         <v>207013</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -3480,13 +3448,13 @@
         <v>209513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>555</v>
@@ -3495,13 +3463,13 @@
         <v>416527</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1041</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>731120</v>
+        <v>18726</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="7">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7">
+        <v>16619</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="7">
-        <v>998</v>
-      </c>
-      <c r="I19" s="7">
-        <v>692551</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>52</v>
+      </c>
+      <c r="N19" s="7">
+        <v>35346</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2039</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1423670</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,49 +3531,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>1041</v>
       </c>
       <c r="D20" s="7">
-        <v>18726</v>
+        <v>731120</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="7">
+        <v>998</v>
+      </c>
+      <c r="I20" s="7">
+        <v>692551</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2039</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1423670</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="7">
-        <v>24</v>
-      </c>
-      <c r="I20" s="7">
-        <v>16619</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" s="7">
-        <v>52</v>
-      </c>
-      <c r="N20" s="7">
-        <v>35346</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3588,13 @@
         <v>749846</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1022</v>
@@ -3635,13 +3603,13 @@
         <v>709170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2091</v>
@@ -3650,13 +3618,18 @@
         <v>1459016</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3677,8 +3650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E6A02F-C892-4F62-BA3B-44FF7B7C71C2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF225E12-E8A3-48EC-BE29-D01B91AB9F47}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3694,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3795,49 +3768,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21364</v>
+        <v>1163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46938</v>
+        <v>1163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +3819,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>1163</v>
+        <v>21364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>1163</v>
+        <v>46938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3876,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3918,13 +3891,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3933,13 +3906,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,49 +3923,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>118591</v>
+        <v>3143</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2681</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5824</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="7">
-        <v>158</v>
-      </c>
-      <c r="I7" s="7">
-        <v>107817</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M7" s="7">
-        <v>318</v>
-      </c>
-      <c r="N7" s="7">
-        <v>226409</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,49 +3974,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>3143</v>
+        <v>118591</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>2681</v>
+        <v>107817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="N8" s="7">
-        <v>5824</v>
+        <v>226409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4031,13 @@
         <v>121734</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -4073,13 +4046,13 @@
         <v>110498</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
@@ -4088,13 +4061,13 @@
         <v>232233</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +4078,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>218804</v>
+        <v>4149</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>325</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>201820</v>
+        <v>4277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
-        <v>649</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>420624</v>
+        <v>8426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +4129,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>324</v>
       </c>
       <c r="D11" s="7">
-        <v>4149</v>
+        <v>218804</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="I11" s="7">
-        <v>4277</v>
+        <v>201820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>649</v>
       </c>
       <c r="N11" s="7">
-        <v>8426</v>
+        <v>420624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4186,13 @@
         <v>222953</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -4228,13 +4201,13 @@
         <v>206097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>662</v>
@@ -4243,66 +4216,66 @@
         <v>429050</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>161282</v>
+        <v>5391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>151511</v>
+        <v>3120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>492</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>312793</v>
+        <v>8511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,49 +4284,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D14" s="7">
-        <v>5391</v>
+        <v>161282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7">
-        <v>3120</v>
+        <v>151511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>492</v>
       </c>
       <c r="N14" s="7">
-        <v>8511</v>
+        <v>312793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4341,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>257</v>
@@ -4383,13 +4356,13 @@
         <v>154631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>505</v>
@@ -4398,66 +4371,66 @@
         <v>321304</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>202274</v>
+        <v>2816</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>203862</v>
+        <v>2157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
-        <v>561</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>406137</v>
+        <v>4973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4439,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="D17" s="7">
-        <v>2816</v>
+        <v>202274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="7">
         <v>276</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
       <c r="I17" s="7">
-        <v>2157</v>
+        <v>203862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>561</v>
       </c>
       <c r="N17" s="7">
-        <v>4973</v>
+        <v>406137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4496,13 @@
         <v>205090</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>279</v>
@@ -4538,13 +4511,13 @@
         <v>206019</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>568</v>
@@ -4553,13 +4526,13 @@
         <v>411110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,49 +4543,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1039</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>726525</v>
+        <v>15499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
-        <v>1034</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>686375</v>
+        <v>13398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M19" s="7">
+        <v>42</v>
+      </c>
+      <c r="N19" s="7">
+        <v>28897</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="M19" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1412900</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,49 +4594,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>1039</v>
       </c>
       <c r="D20" s="7">
-        <v>15499</v>
+        <v>726525</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>1034</v>
       </c>
       <c r="I20" s="7">
-        <v>13398</v>
+        <v>686375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2073</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1412900</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M20" s="7">
-        <v>42</v>
-      </c>
-      <c r="N20" s="7">
-        <v>28897</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4651,13 @@
         <v>742024</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1054</v>
@@ -4693,13 +4666,13 @@
         <v>699773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2115</v>
@@ -4708,13 +4681,18 @@
         <v>1441797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4735,8 +4713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AA298B-304D-47BD-BEFF-6FA12FE2EE6D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98739272-1D1E-4A54-88F5-B11610B26E5F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4752,7 +4730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4853,49 +4831,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12120</v>
+        <v>578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>15797</v>
+        <v>990</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>27917</v>
+        <v>1568</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,49 +4882,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>578</v>
+        <v>12120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>990</v>
+        <v>15797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>1568</v>
+        <v>27917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4939,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4976,13 +4954,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4991,13 +4969,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,49 +4986,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>111486</v>
+        <v>3110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>101834</v>
+        <v>2061</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>314</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>213319</v>
+        <v>5171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,49 +5037,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7">
-        <v>3110</v>
+        <v>111486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="7">
+        <v>166</v>
+      </c>
+      <c r="I8" s="7">
+        <v>101834</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
         <v>314</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2061</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
       <c r="N8" s="7">
-        <v>5171</v>
+        <v>213319</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5094,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5131,13 +5109,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5146,13 +5124,13 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,49 +5141,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>245114</v>
+        <v>5072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
-        <v>271</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>184516</v>
+        <v>7836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>606</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>429630</v>
+        <v>12908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,49 +5192,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="D11" s="7">
-        <v>5072</v>
+        <v>245114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>7836</v>
+        <v>184516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>606</v>
       </c>
       <c r="N11" s="7">
-        <v>12908</v>
+        <v>429630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5249,13 @@
         <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>280</v>
@@ -5286,13 +5264,13 @@
         <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>623</v>
@@ -5301,66 +5279,66 @@
         <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>170742</v>
+        <v>2466</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>164293</v>
+        <v>4442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>335036</v>
+        <v>6907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,49 +5347,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>2466</v>
+        <v>170742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>4442</v>
+        <v>164293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>443</v>
       </c>
       <c r="N14" s="7">
-        <v>6907</v>
+        <v>335036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5404,13 @@
         <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>227</v>
@@ -5441,13 +5419,13 @@
         <v>168735</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>452</v>
@@ -5456,66 +5434,66 @@
         <v>341943</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>168990</v>
+        <v>6026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>169597</v>
+        <v>2346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
-        <v>467</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>338587</v>
+        <v>8371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,49 +5502,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>6026</v>
+        <v>168990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="I17" s="7">
-        <v>2346</v>
+        <v>169597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>467</v>
       </c>
       <c r="N17" s="7">
-        <v>8371</v>
+        <v>338587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5559,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -5596,13 +5574,13 @@
         <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -5611,13 +5589,13 @@
         <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,49 +5606,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>953</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>708452</v>
+        <v>17252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
-        <v>921</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>636038</v>
+        <v>17674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
-        <v>1874</v>
+        <v>46</v>
       </c>
       <c r="N19" s="7">
-        <v>1344490</v>
+        <v>34926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,49 +5657,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>953</v>
       </c>
       <c r="D20" s="7">
-        <v>17252</v>
+        <v>708452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>921</v>
       </c>
       <c r="I20" s="7">
-        <v>17674</v>
+        <v>636038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
-        <v>46</v>
+        <v>1874</v>
       </c>
       <c r="N20" s="7">
-        <v>34926</v>
+        <v>1344490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>375</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5714,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>943</v>
@@ -5751,13 +5729,13 @@
         <v>653712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1920</v>
@@ -5766,13 +5744,18 @@
         <v>1379416</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C0FDD1-7622-4425-AD30-A9A286A6AB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9DF411-AD50-43E3-ACE6-53B206DC4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C608DC64-72ED-4A70-8B80-53CAE4F65035}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45A6B70B-5A7B-4AA0-9EFA-4F5D0B711A98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>21,7%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>8,77%</t>
+    <t>7,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>96,62%</t>
   </si>
   <si>
-    <t>83,06%</t>
+    <t>78,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,19 +116,19 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>2,89%</t>
@@ -137,31 +137,31 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>6,29%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>93,75%</t>
+    <t>93,71%</t>
   </si>
   <si>
     <t>98,89%</t>
@@ -170,949 +170,1015 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>98,15%</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9527FD11-EBA9-4B50-ACDF-29735992A81D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96395AB5-02FC-4DDB-80EF-123948183EF9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2587,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F8FE4-A434-4E74-9330-34911823B519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682F55F6-7412-4207-9018-E1EDF37E3534}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2968,7 @@
         <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2983,13 @@
         <v>126417</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -2932,13 +2998,13 @@
         <v>113938</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>338</v>
@@ -2947,13 +3013,13 @@
         <v>240354</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3087,13 @@
         <v>3272</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3036,13 +3102,13 @@
         <v>2666</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3051,13 +3117,13 @@
         <v>5938</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3144,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -3087,13 +3153,13 @@
         <v>203692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -3102,13 +3168,13 @@
         <v>422816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3242,13 @@
         <v>6320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3191,13 +3257,13 @@
         <v>4773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3206,13 +3272,13 @@
         <v>11094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3293,13 @@
         <v>160272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -3242,13 +3308,13 @@
         <v>149905</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>479</v>
@@ -3257,13 +3323,13 @@
         <v>310176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3397,13 @@
         <v>7160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -3346,13 +3412,13 @@
         <v>5079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3361,13 +3427,13 @@
         <v>12239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3448,13 @@
         <v>199853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>267</v>
@@ -3397,13 +3463,13 @@
         <v>204434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>538</v>
@@ -3412,13 +3478,13 @@
         <v>404288</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3552,13 @@
         <v>18726</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -3501,13 +3567,13 @@
         <v>16619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -3516,13 +3582,13 @@
         <v>35346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3603,13 @@
         <v>731120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>998</v>
@@ -3552,13 +3618,13 @@
         <v>692551</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>2039</v>
@@ -3567,13 +3633,13 @@
         <v>1423670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF225E12-E8A3-48EC-BE29-D01B91AB9F47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939CAF70-3CE5-4D27-87C2-4EBBD1066504}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3780,7 +3846,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3789,13 +3855,13 @@
         <v>1163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3804,13 +3870,13 @@
         <v>1163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3894,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3840,10 +3906,10 @@
         <v>21364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3855,10 +3921,10 @@
         <v>46938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3929,13 +3995,13 @@
         <v>3143</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3944,13 +4010,13 @@
         <v>2681</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3959,13 +4025,13 @@
         <v>5824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +4046,13 @@
         <v>118591</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -3995,13 +4061,13 @@
         <v>107817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -4010,13 +4076,13 @@
         <v>226409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4150,13 @@
         <v>4149</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4099,13 +4165,13 @@
         <v>4277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4114,13 +4180,13 @@
         <v>8426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4201,13 @@
         <v>218804</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4150,13 +4216,13 @@
         <v>201820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>649</v>
@@ -4165,13 +4231,13 @@
         <v>420624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4305,13 @@
         <v>5391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4254,13 +4320,13 @@
         <v>3120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4272,10 +4338,10 @@
         <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4356,13 @@
         <v>161282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>252</v>
@@ -4305,13 +4371,13 @@
         <v>151511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>492</v>
@@ -4323,10 +4389,10 @@
         <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4460,13 @@
         <v>2816</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4412,10 +4478,10 @@
         <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4424,13 +4490,13 @@
         <v>4973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4511,13 @@
         <v>202274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -4463,10 +4529,10 @@
         <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>561</v>
@@ -4475,13 +4541,13 @@
         <v>406137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4615,13 @@
         <v>15499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4564,13 +4630,13 @@
         <v>13398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4579,13 +4645,13 @@
         <v>28897</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4666,13 @@
         <v>726525</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>1034</v>
@@ -4615,13 +4681,13 @@
         <v>686375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>2073</v>
@@ -4630,13 +4696,13 @@
         <v>1412900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98739272-1D1E-4A54-88F5-B11610B26E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA0362-CE86-49C9-9D8C-2A5A8A973D92}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4730,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4837,13 +4903,13 @@
         <v>578</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4852,13 +4918,13 @@
         <v>990</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4867,13 +4933,13 @@
         <v>1568</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,10 +4954,10 @@
         <v>12120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4903,10 +4969,10 @@
         <v>15797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4918,13 +4984,13 @@
         <v>27917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5058,13 @@
         <v>3110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5013,7 +5079,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5022,13 +5088,13 @@
         <v>5171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5109,13 @@
         <v>111486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5061,7 +5127,7 @@
         <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5073,13 +5139,13 @@
         <v>213319</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,10 +5216,10 @@
         <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5162,13 +5228,13 @@
         <v>7836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5177,13 +5243,13 @@
         <v>12908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,10 +5267,10 @@
         <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>271</v>
@@ -5213,13 +5279,13 @@
         <v>184516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -5228,13 +5294,13 @@
         <v>429630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5368,13 @@
         <v>2466</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5317,13 +5383,13 @@
         <v>4442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5332,13 +5398,13 @@
         <v>6907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5419,13 @@
         <v>170742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -5368,13 +5434,13 @@
         <v>164293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -5383,13 +5449,13 @@
         <v>335036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5523,13 @@
         <v>6026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5472,13 +5538,13 @@
         <v>2346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5487,13 +5553,13 @@
         <v>8371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5574,13 @@
         <v>168990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -5523,13 +5589,13 @@
         <v>169597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>467</v>
@@ -5538,13 +5604,13 @@
         <v>338587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5678,13 @@
         <v>17252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5627,13 +5693,13 @@
         <v>17674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -5642,13 +5708,13 @@
         <v>34926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5729,13 @@
         <v>708452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="H20" s="7">
         <v>921</v>
@@ -5678,13 +5744,13 @@
         <v>636038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>1874</v>
@@ -5693,13 +5759,13 @@
         <v>1344490</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP7_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9DF411-AD50-43E3-ACE6-53B206DC4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{942E494D-72DC-4E64-93D6-D2D24CBDD17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45A6B70B-5A7B-4AA0-9EFA-4F5D0B711A98}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{12CB3FFC-CEA6-490B-B794-42B4B92EEC53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="336">
   <si>
     <t>Menores según si su salud general es regular o mala en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1117 +68,985 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>97,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2016 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general es regular o mala en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1458,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96395AB5-02FC-4DDB-80EF-123948183EF9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BBB536-E0F2-45F0-A637-D0291A4E4D28}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1708,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>3351</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1723,85 +1591,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>832</v>
+        <v>7344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7">
-        <v>23793</v>
+        <v>135375</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
+        <v>219</v>
+      </c>
+      <c r="I5" s="7">
+        <v>148265</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>417</v>
+      </c>
+      <c r="N5" s="7">
+        <v>283640</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>60</v>
-      </c>
-      <c r="N5" s="7">
-        <v>46517</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,153 +1678,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>24625</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>152258</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>61</v>
+        <v>428</v>
       </c>
       <c r="N6" s="7">
-        <v>47349</v>
+        <v>290984</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3161</v>
+        <v>4432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>3351</v>
+        <v>12140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>6512</v>
+        <v>16573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="D8" s="7">
-        <v>124472</v>
+        <v>190731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c r="I8" s="7">
-        <v>112651</v>
+        <v>198655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>357</v>
+        <v>607</v>
       </c>
       <c r="N8" s="7">
-        <v>237123</v>
+        <v>389385</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,153 +1833,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>210795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>632</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>405958</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>12140</v>
+        <v>2387</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4432</v>
+        <v>3312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>16573</v>
+        <v>5699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>198655</v>
+        <v>135430</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>190731</v>
+        <v>146345</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>607</v>
+        <v>452</v>
       </c>
       <c r="N11" s="7">
-        <v>389385</v>
+        <v>281775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,153 +1988,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>210795</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>632</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>405958</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3312</v>
+        <v>1474</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>2387</v>
+        <v>5969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>5699</v>
+        <v>7444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D14" s="7">
-        <v>146345</v>
+        <v>207841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="I14" s="7">
-        <v>135430</v>
+        <v>201211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>281775</v>
+        <v>409051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,153 +2143,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207180</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>416495</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>5969</v>
+        <v>11645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>1474</v>
+        <v>25414</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>7444</v>
+        <v>37059</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>296</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="7">
-        <v>201211</v>
+        <v>669376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>272</v>
+        <v>1044</v>
       </c>
       <c r="I17" s="7">
-        <v>207841</v>
+        <v>694476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>568</v>
+        <v>2044</v>
       </c>
       <c r="N17" s="7">
-        <v>409051</v>
+        <v>1363852</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,217 +2298,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>305</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207180</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1082</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>719890</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>579</v>
+        <v>2100</v>
       </c>
       <c r="N18" s="7">
-        <v>416495</v>
+        <v>1400911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25414</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11645</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>56</v>
-      </c>
-      <c r="N19" s="7">
-        <v>37059</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1044</v>
-      </c>
-      <c r="D20" s="7">
-        <v>694476</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="7">
-        <v>669376</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2044</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1363852</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1082</v>
-      </c>
-      <c r="D21" s="7">
-        <v>719890</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2100</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1400911</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2653,8 +2365,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682F55F6-7412-4207-9018-E1EDF37E3534}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE44CBE-3709-4DDD-8B3B-A4A3B27D7F67}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2670,7 +2382,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,100 +2483,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1792</v>
+        <v>1973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1792</v>
+        <v>6075</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>134519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>20581</v>
+        <v>151872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="N5" s="7">
-        <v>46036</v>
+        <v>286391</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,153 +2585,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>138621</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153845</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>292466</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1973</v>
+        <v>2666</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3272</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5938</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2310</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="7">
-        <v>6</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4284</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="D8" s="7">
-        <v>126417</v>
+        <v>203692</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
+        <v>317</v>
+      </c>
+      <c r="I8" s="7">
+        <v>219124</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>632</v>
+      </c>
+      <c r="N8" s="7">
+        <v>422816</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="7">
-        <v>159</v>
-      </c>
-      <c r="I8" s="7">
-        <v>113938</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" s="7">
-        <v>338</v>
-      </c>
-      <c r="N8" s="7">
-        <v>240354</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,153 +2740,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>128390</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116248</v>
+        <v>222396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>344</v>
+        <v>641</v>
       </c>
       <c r="N9" s="7">
-        <v>244638</v>
+        <v>428754</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>3272</v>
+        <v>4773</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6320</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>18</v>
+      </c>
+      <c r="N10" s="7">
+        <v>11094</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2666</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5938</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>219124</v>
+        <v>149905</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="7">
+        <v>246</v>
+      </c>
+      <c r="I11" s="7">
+        <v>160272</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="7">
+        <v>479</v>
+      </c>
+      <c r="N11" s="7">
+        <v>310176</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H11" s="7">
-        <v>315</v>
-      </c>
-      <c r="I11" s="7">
-        <v>203692</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" s="7">
-        <v>632</v>
-      </c>
-      <c r="N11" s="7">
-        <v>422816</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,153 +2895,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>222396</v>
+        <v>154678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>641</v>
+        <v>497</v>
       </c>
       <c r="N12" s="7">
-        <v>428754</v>
+        <v>321270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5079</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
-        <v>6320</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>7160</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="7">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>12239</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4773</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>11094</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D14" s="7">
-        <v>160272</v>
+        <v>204434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="I14" s="7">
-        <v>149905</v>
+        <v>199853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="N14" s="7">
-        <v>310176</v>
+        <v>404288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,153 +3050,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>166592</v>
+        <v>209513</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154678</v>
+        <v>207013</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="N15" s="7">
-        <v>321270</v>
+        <v>416527</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>7160</v>
+        <v>16619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>5079</v>
+        <v>18726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>12239</v>
+        <v>35346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>271</v>
+        <v>998</v>
       </c>
       <c r="D17" s="7">
-        <v>199853</v>
+        <v>692551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>267</v>
+        <v>1041</v>
       </c>
       <c r="I17" s="7">
-        <v>204434</v>
+        <v>731120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
-        <v>538</v>
+        <v>2039</v>
       </c>
       <c r="N17" s="7">
-        <v>404288</v>
+        <v>1423670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,217 +3205,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1022</v>
       </c>
       <c r="D18" s="7">
-        <v>207013</v>
+        <v>709170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1069</v>
       </c>
       <c r="I18" s="7">
-        <v>209513</v>
+        <v>749846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>555</v>
+        <v>2091</v>
       </c>
       <c r="N18" s="7">
-        <v>416527</v>
+        <v>1459016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>18726</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16619</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>52</v>
-      </c>
-      <c r="N19" s="7">
-        <v>35346</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1041</v>
-      </c>
-      <c r="D20" s="7">
-        <v>731120</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H20" s="7">
-        <v>998</v>
-      </c>
-      <c r="I20" s="7">
-        <v>692551</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2039</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1423670</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1069</v>
-      </c>
-      <c r="D21" s="7">
-        <v>749846</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I21" s="7">
-        <v>709170</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2091</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1459016</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3716,8 +3272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939CAF70-3CE5-4D27-87C2-4EBBD1066504}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D693983-040B-4AEF-972F-DB6A498D1CAF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3733,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3834,100 +3390,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3844</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1163</v>
+        <v>3143</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1163</v>
+        <v>6987</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>129181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I5" s="7">
-        <v>21364</v>
+        <v>144165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="N5" s="7">
-        <v>46938</v>
+        <v>273347</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,153 +3492,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133025</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>147308</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>280334</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>3143</v>
+        <v>4277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2681</v>
+        <v>4149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>5824</v>
+        <v>8426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>118591</v>
+        <v>201820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>107817</v>
+        <v>218804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
-        <v>318</v>
+        <v>649</v>
       </c>
       <c r="N8" s="7">
-        <v>226409</v>
+        <v>420624</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,153 +3647,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>121734</v>
+        <v>206097</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="I9" s="7">
-        <v>110498</v>
+        <v>222953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>326</v>
+        <v>662</v>
       </c>
       <c r="N9" s="7">
-        <v>232233</v>
+        <v>429050</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4149</v>
+        <v>3120</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>4277</v>
+        <v>5391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>8426</v>
+        <v>8511</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>218804</v>
+        <v>151511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="I11" s="7">
-        <v>201820</v>
+        <v>161282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
-        <v>649</v>
+        <v>492</v>
       </c>
       <c r="N11" s="7">
-        <v>420624</v>
+        <v>312793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,153 +3802,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="D12" s="7">
-        <v>222953</v>
+        <v>154631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>206097</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>662</v>
+        <v>505</v>
       </c>
       <c r="N12" s="7">
-        <v>429050</v>
+        <v>321304</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>5391</v>
+        <v>2157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>3120</v>
+        <v>2816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>8511</v>
+        <v>4973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>276</v>
+      </c>
+      <c r="D14" s="7">
+        <v>203862</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="7">
+        <v>285</v>
+      </c>
+      <c r="I14" s="7">
+        <v>202274</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="7">
-        <v>161282</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="7">
-        <v>252</v>
-      </c>
-      <c r="I14" s="7">
-        <v>151511</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="N14" s="7">
-        <v>312793</v>
+        <v>406137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,153 +3957,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>206019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="I15" s="7">
-        <v>154631</v>
+        <v>205090</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="N15" s="7">
-        <v>321304</v>
+        <v>411110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>2816</v>
+        <v>13398</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>2157</v>
+        <v>15499</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>4973</v>
+        <v>28897</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>285</v>
+        <v>1034</v>
       </c>
       <c r="D17" s="7">
-        <v>202274</v>
+        <v>686375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>276</v>
+        <v>1039</v>
       </c>
       <c r="I17" s="7">
-        <v>203862</v>
+        <v>726525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
-        <v>561</v>
+        <v>2073</v>
       </c>
       <c r="N17" s="7">
-        <v>406137</v>
+        <v>1412900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,217 +4112,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>289</v>
+        <v>1054</v>
       </c>
       <c r="D18" s="7">
-        <v>205090</v>
+        <v>699773</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>279</v>
+        <v>1061</v>
       </c>
       <c r="I18" s="7">
-        <v>206019</v>
+        <v>742024</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>568</v>
+        <v>2115</v>
       </c>
       <c r="N18" s="7">
-        <v>411110</v>
+        <v>1441797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15499</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13398</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M19" s="7">
-        <v>42</v>
-      </c>
-      <c r="N19" s="7">
-        <v>28897</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1039</v>
-      </c>
-      <c r="D20" s="7">
-        <v>726525</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I20" s="7">
-        <v>686375</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1412900</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D21" s="7">
-        <v>742024</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1054</v>
-      </c>
-      <c r="I21" s="7">
-        <v>699773</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2115</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1441797</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4779,8 +4179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA0362-CE86-49C9-9D8C-2A5A8A973D92}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C040F0F3-A548-487A-B56A-E0965CC9F7C2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4796,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4897,100 +4297,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>578</v>
+        <v>3134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>990</v>
+        <v>3986</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>1568</v>
+        <v>7120</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7">
-        <v>12120</v>
+        <v>114146</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I5" s="7">
-        <v>15797</v>
+        <v>136426</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>27917</v>
+        <v>250573</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,153 +4399,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>3110</v>
+        <v>11210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>2061</v>
+        <v>5397</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>5171</v>
+        <v>16608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>111486</v>
+        <v>179302</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>101834</v>
+        <v>249638</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
-        <v>314</v>
+        <v>606</v>
       </c>
       <c r="N8" s="7">
-        <v>213319</v>
+        <v>428940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,153 +4554,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5072</v>
+        <v>4383</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2733</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="7">
         <v>9</v>
       </c>
-      <c r="I10" s="7">
-        <v>7836</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M10" s="7">
-        <v>17</v>
-      </c>
       <c r="N10" s="7">
-        <v>12908</v>
+        <v>7115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>245114</v>
+        <v>186018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>184516</v>
+        <v>182553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
-        <v>606</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>429630</v>
+        <v>368572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,54 +4709,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5365,97 +4765,97 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2466</v>
+        <v>2417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>4442</v>
+        <v>6553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>6907</v>
+        <v>8970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>170742</v>
+        <v>165545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>164293</v>
+        <v>174685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N14" s="7">
-        <v>335036</v>
+        <v>340231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,153 +4864,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>6026</v>
+        <v>21144</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>2346</v>
+        <v>18669</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="N16" s="7">
-        <v>8371</v>
+        <v>39813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>230</v>
+        <v>921</v>
       </c>
       <c r="D17" s="7">
-        <v>168990</v>
+        <v>645011</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
-        <v>237</v>
+        <v>953</v>
       </c>
       <c r="I17" s="7">
-        <v>169597</v>
+        <v>743303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
-        <v>467</v>
+        <v>1874</v>
       </c>
       <c r="N17" s="7">
-        <v>338587</v>
+        <v>1388314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,217 +5019,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17252</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H19" s="7">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17674</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M19" s="7">
-        <v>46</v>
-      </c>
-      <c r="N19" s="7">
-        <v>34926</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>953</v>
-      </c>
-      <c r="D20" s="7">
-        <v>708452</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H20" s="7">
-        <v>921</v>
-      </c>
-      <c r="I20" s="7">
-        <v>636038</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1874</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1344490</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>977</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>943</v>
-      </c>
-      <c r="I21" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>118</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
